--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/rebuildServerDialog.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/rebuildServerDialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>reset_system</t>
   </si>
@@ -204,9 +204,6 @@
     <t>image_market</t>
   </si>
   <si>
-    <t>'Image Marketplace'</t>
-  </si>
-  <si>
     <t>local_disk</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>pwd_notSame</t>
   </si>
   <si>
-    <t>'Passwords input the two times are consistent!';</t>
-  </si>
-  <si>
     <t>Tips</t>
   </si>
   <si>
@@ -264,15 +258,9 @@
     <t>reset_tips_one</t>
   </si>
   <si>
-    <t>Confirm to rebuild</t>
-  </si>
-  <si>
     <t>reset_tips_two</t>
   </si>
   <si>
-    <t>the virtual machine?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -528,28 +516,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>确认对云主机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>进行重置系统操作？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>重置系统只针对系统盘做初始化</t>
     </r>
     <r>
@@ -1048,6 +1014,22 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Marketplace'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passwords input are inconsistent!';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认对云主机进行重置系统操作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm to rebuild the virtual machine?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1102,9 +1084,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1447,13 +1436,13 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="187" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="255.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -1463,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1474,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1485,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1496,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1507,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1529,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1540,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1551,7 +1540,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1562,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1573,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1584,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1595,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -1606,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1617,7 +1606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -1628,7 +1617,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1639,7 +1628,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -1650,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -1661,7 +1650,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
@@ -1672,7 +1661,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
@@ -1683,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
@@ -1694,7 +1683,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
@@ -1705,7 +1694,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
@@ -1716,7 +1705,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -1727,7 +1716,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
@@ -1738,7 +1727,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
@@ -1749,7 +1738,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
@@ -1760,7 +1749,7 @@
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>55</v>
@@ -1771,7 +1760,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>57</v>
@@ -1782,7 +1771,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>59</v>
@@ -1793,138 +1782,138 @@
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>111</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C42 A1:A42" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C30 A1:A42 C32:C36 C38:C40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>